--- a/Designer/Excel/Item.xlsx
+++ b/Designer/Excel/Item.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\Demo\Data\0_no_loc\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fancyHub\UnityLibs\Designer\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29C23FE-FFA4-4980-82C9-7E1D19CE34A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE77DDCD-BC9C-4426-B181-445914C79541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
-    <sheet name="@EnumConfig_ItemType" sheetId="3" r:id="rId2"/>
-    <sheet name="@EnumConfig_ItemSubType" sheetId="4" r:id="rId3"/>
+    <sheet name="@@EnumConfig_ItemType" sheetId="3" r:id="rId2"/>
+    <sheet name="@@EnumConfig_ItemSubType" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -326,17 +326,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">int_bool
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int_int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">list_int_int64
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_bool
+Alias[PairItemIntBool]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_int
+Alias[PairItemIntInt64]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -344,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -515,9 +516,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -555,7 +556,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -661,7 +662,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -803,7 +804,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -818,10 +819,10 @@
       <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
@@ -834,7 +835,7 @@
     <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>47</v>
       </c>
@@ -872,7 +873,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="36.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -893,23 +894,23 @@
         <v>59</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="16.5">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -947,7 +948,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -982,7 +983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1024,19 +1025,19 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E0340732-8881-4BC9-A7C2-7D237ABA5FF0}">
           <x14:formula1>
-            <xm:f>'@EnumConfig_ItemSubType'!$C$6:$C$9</xm:f>
+            <xm:f>'@@EnumConfig_ItemSubType'!$C$6:$C$9</xm:f>
           </x14:formula1>
           <xm:sqref>F4:F5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ABA0D88B-5028-40B8-BC94-1B76F6C1355E}">
           <x14:formula1>
-            <xm:f>'@EnumConfig_ItemType'!$C$2:$C$4</xm:f>
+            <xm:f>'@@EnumConfig_ItemType'!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>D4:D5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{67A888EF-C072-41FD-B31B-31D7506AF195}">
           <x14:formula1>
-            <xm:f>'@EnumConfig_ItemSubType'!$C$2:$C$4</xm:f>
+            <xm:f>'@@EnumConfig_ItemSubType'!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>E4:E5</xm:sqref>
         </x14:dataValidation>
@@ -1052,17 +1053,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>71</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1131,17 +1132,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -1173,7 +1174,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -1188,7 +1189,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -1203,7 +1204,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1218,7 +1219,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1234,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1248,7 +1249,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -1263,7 +1264,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
         <v>64</v>
       </c>
@@ -1278,7 +1279,7 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
         <v>64</v>
       </c>
@@ -1293,7 +1294,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
         <v>64</v>
       </c>
